--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="602">
   <si>
     <t>Property</t>
   </si>
@@ -293,406 +293,410 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Observation.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>heartRythm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {NoDomainVitalSignsObservationHeartRhythm}
+</t>
+  </si>
+  <si>
+    <t>Regularity of the pulse or heart beat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>clinicalDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationClinicalDescription}
+</t>
+  </si>
+  <si>
+    <t>Narrative description about the pulse or heart beat.</t>
+  </si>
+  <si>
+    <t>characterOfHeartrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationCharacterOfHeartRate}
+</t>
+  </si>
+  <si>
+    <t>Description of the character of the pulse or heart beat.</t>
+  </si>
+  <si>
+    <t>BodyPosition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {NoDomainVitalSignsObservationHeartRateBodyPosition}
+</t>
+  </si>
+  <si>
+    <t>The body position of the subject during the observation.</t>
+  </si>
+  <si>
+    <t>heartRythmIrregularity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {NoDomainVitalSignsObservationHeartRhythmIrregularity}
+</t>
+  </si>
+  <si>
+    <t>More specific pattern of an irregular pulse or heart beat.</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+</t>
+  </si>
+  <si>
+    <t>Part of referenced event</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
+  </si>
+  <si>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>value:coding.code}
+value:coding.system}</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>VSCat</t>
+  </si>
+  <si>
+    <t>Observation.category.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Observation.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>heartRythm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {NoDomainVitalSignsObservationHeartRhythm}
-</t>
-  </si>
-  <si>
-    <t>Regularity of the pulse or heart beat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>clinicalDescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationClinicalDescription}
-</t>
-  </si>
-  <si>
-    <t>Narrative description about the pulse or heart beat.</t>
-  </si>
-  <si>
-    <t>characterOfHeartrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationCharacterOfHeartRate}
-</t>
-  </si>
-  <si>
-    <t>Description of the character of the pulse or heart beat.</t>
-  </si>
-  <si>
-    <t>BodyPosition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {NoDomainVitalSignsObservationHeartRateBodyPosition}
-</t>
-  </si>
-  <si>
-    <t>The body position of the subject during the observation.</t>
-  </si>
-  <si>
-    <t>heartRythmIrregularity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {NoDomainVitalSignsObservationHeartRhythmIrregularity}
-</t>
-  </si>
-  <si>
-    <t>More specific pattern of an irregular pulse or heart beat.</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Observation.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
-</t>
-  </si>
-  <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
-  </si>
-  <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>value:coding.code}
-value:coding.system}</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>VSCat</t>
-  </si>
-  <si>
-    <t>Observation.category.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4751,13 +4755,13 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4808,7 +4812,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4832,7 +4836,7 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4843,7 +4847,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4869,10 +4873,10 @@
         <v>134</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>161</v>
@@ -4916,7 +4920,7 @@
         <v>137</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>79</v>
@@ -4925,7 +4929,7 @@
         <v>138</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4949,7 +4953,7 @@
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4960,7 +4964,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4983,19 +4987,19 @@
         <v>90</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -5044,7 +5048,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5065,10 +5069,10 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -5079,7 +5083,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5102,13 +5106,13 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5159,7 +5163,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5183,7 +5187,7 @@
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5194,7 +5198,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5220,10 +5224,10 @@
         <v>134</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>161</v>
@@ -5267,7 +5271,7 @@
         <v>137</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
@@ -5276,7 +5280,7 @@
         <v>138</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5300,7 +5304,7 @@
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -5311,7 +5315,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5337,23 +5341,23 @@
         <v>103</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>79</v>
@@ -5395,7 +5399,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5416,10 +5420,10 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5430,7 +5434,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5453,16 +5457,16 @@
         <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5512,7 +5516,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5533,10 +5537,10 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5547,7 +5551,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5573,21 +5577,21 @@
         <v>109</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>79</v>
@@ -5629,7 +5633,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5650,10 +5654,10 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5664,7 +5668,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5687,17 +5691,17 @@
         <v>90</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5746,7 +5750,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5767,10 +5771,10 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5781,7 +5785,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5804,19 +5808,19 @@
         <v>90</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5865,7 +5869,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5886,10 +5890,10 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5900,7 +5904,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5923,19 +5927,19 @@
         <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5984,7 +5988,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -6005,10 +6009,10 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6019,11 +6023,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -6045,16 +6049,16 @@
         <v>204</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6079,13 +6083,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6103,7 +6107,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>89</v>
@@ -6118,27 +6122,27 @@
         <v>101</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6161,13 +6165,13 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6218,7 +6222,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6242,7 +6246,7 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6253,7 +6257,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6279,10 +6283,10 @@
         <v>134</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>161</v>
@@ -6326,7 +6330,7 @@
         <v>137</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>79</v>
@@ -6335,7 +6339,7 @@
         <v>138</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6359,7 +6363,7 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6370,7 +6374,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6393,19 +6397,19 @@
         <v>90</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6442,7 +6446,7 @@
         <v>79</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
@@ -6452,7 +6456,7 @@
         <v>138</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6473,10 +6477,10 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6487,10 +6491,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>79</v>
@@ -6512,19 +6516,19 @@
         <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6573,7 +6577,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6594,10 +6598,10 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6608,7 +6612,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6631,13 +6635,13 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6688,7 +6692,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6712,7 +6716,7 @@
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6723,7 +6727,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6749,10 +6753,10 @@
         <v>134</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>161</v>
@@ -6796,7 +6800,7 @@
         <v>137</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>79</v>
@@ -6805,7 +6809,7 @@
         <v>138</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6829,7 +6833,7 @@
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6840,7 +6844,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6866,23 +6870,23 @@
         <v>103</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>79</v>
@@ -6924,7 +6928,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6945,10 +6949,10 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6959,7 +6963,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6982,16 +6986,16 @@
         <v>90</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7041,7 +7045,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7062,10 +7066,10 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7076,7 +7080,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7102,21 +7106,21 @@
         <v>109</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>79</v>
@@ -7158,7 +7162,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7179,10 +7183,10 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7193,7 +7197,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7216,17 +7220,17 @@
         <v>90</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -7275,7 +7279,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7296,10 +7300,10 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7310,7 +7314,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7333,19 +7337,19 @@
         <v>90</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7394,7 +7398,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7415,10 +7419,10 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7429,7 +7433,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7452,19 +7456,19 @@
         <v>90</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7513,7 +7517,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7534,10 +7538,10 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7548,7 +7552,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7571,19 +7575,19 @@
         <v>90</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7632,7 +7636,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7647,19 +7651,19 @@
         <v>101</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7667,7 +7671,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7690,16 +7694,16 @@
         <v>90</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7749,7 +7753,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7770,13 +7774,13 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -7784,11 +7788,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7807,19 +7811,19 @@
         <v>90</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7868,7 +7872,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7883,19 +7887,19 @@
         <v>101</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7903,11 +7907,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7926,19 +7930,19 @@
         <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7987,7 +7991,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7996,25 +8000,25 @@
         <v>89</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -8022,7 +8026,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8045,16 +8049,16 @@
         <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8104,7 +8108,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8125,13 +8129,13 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -8139,7 +8143,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8162,17 +8166,17 @@
         <v>90</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8209,7 +8213,7 @@
         <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AB51" s="2"/>
       <c r="AC51" t="s" s="2">
@@ -8219,7 +8223,7 @@
         <v>138</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8234,19 +8238,19 @@
         <v>101</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -8254,10 +8258,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>79</v>
@@ -8279,17 +8283,17 @@
         <v>90</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8338,7 +8342,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8353,19 +8357,19 @@
         <v>101</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8373,10 +8377,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>79</v>
@@ -8398,17 +8402,17 @@
         <v>90</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8457,7 +8461,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8472,19 +8476,19 @@
         <v>101</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8492,7 +8496,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8515,19 +8519,19 @@
         <v>90</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8564,17 +8568,17 @@
         <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AB54" s="2"/>
       <c r="AC54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8583,7 +8587,7 @@
         <v>89</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>101</v>
@@ -8592,27 +8596,27 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>79</v>
@@ -8634,19 +8638,19 @@
         <v>90</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8695,7 +8699,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8704,7 +8708,7 @@
         <v>89</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>101</v>
@@ -8713,24 +8717,24 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8753,13 +8757,13 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8810,7 +8814,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8834,7 +8838,7 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8845,7 +8849,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8871,10 +8875,10 @@
         <v>134</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>161</v>
@@ -8918,7 +8922,7 @@
         <v>137</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>79</v>
@@ -8927,7 +8931,7 @@
         <v>138</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8951,7 +8955,7 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8962,7 +8966,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8985,19 +8989,19 @@
         <v>90</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -9046,7 +9050,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9067,10 +9071,10 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9081,7 +9085,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9107,20 +9111,20 @@
         <v>109</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q59" t="s" s="2">
         <v>79</v>
@@ -9144,10 +9148,10 @@
         <v>196</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9165,7 +9169,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9186,10 +9190,10 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9200,7 +9204,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9223,17 +9227,17 @@
         <v>90</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9282,7 +9286,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9303,10 +9307,10 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9317,7 +9321,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9343,14 +9347,14 @@
         <v>103</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9399,7 +9403,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9408,7 +9412,7 @@
         <v>89</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>101</v>
@@ -9420,10 +9424,10 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9434,7 +9438,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9460,16 +9464,16 @@
         <v>109</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9518,7 +9522,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9539,10 +9543,10 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9553,7 +9557,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9579,16 +9583,16 @@
         <v>204</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9613,13 +9617,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9637,7 +9641,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9646,7 +9650,7 @@
         <v>89</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>101</v>
@@ -9661,7 +9665,7 @@
         <v>132</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9672,11 +9676,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9698,16 +9702,16 @@
         <v>204</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9732,13 +9736,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9756,7 +9760,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9774,24 +9778,24 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9814,19 +9818,19 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9875,7 +9879,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9896,10 +9900,10 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9910,7 +9914,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9936,13 +9940,13 @@
         <v>204</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9972,7 +9976,7 @@
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9990,7 +9994,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -10008,24 +10012,24 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10048,13 +10052,13 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -10105,7 +10109,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10129,7 +10133,7 @@
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -10140,7 +10144,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10166,10 +10170,10 @@
         <v>134</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>161</v>
@@ -10213,7 +10217,7 @@
         <v>137</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>79</v>
@@ -10222,7 +10226,7 @@
         <v>138</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10246,7 +10250,7 @@
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10257,7 +10261,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10280,19 +10284,19 @@
         <v>90</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10321,7 +10325,7 @@
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10339,7 +10343,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10360,10 +10364,10 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10374,7 +10378,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10397,19 +10401,19 @@
         <v>90</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10458,7 +10462,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10479,10 +10483,10 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10493,7 +10497,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10519,16 +10523,16 @@
         <v>204</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10553,13 +10557,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10577,7 +10581,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10598,10 +10602,10 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10612,7 +10616,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10635,16 +10639,16 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10694,7 +10698,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10712,24 +10716,24 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10752,16 +10756,16 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10811,7 +10815,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10829,24 +10833,24 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10869,19 +10873,19 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10930,7 +10934,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10942,7 +10946,7 @@
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>79</v>
@@ -10951,10 +10955,10 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10965,7 +10969,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10988,13 +10992,13 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -11045,7 +11049,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11069,7 +11073,7 @@
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -11080,7 +11084,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11106,10 +11110,10 @@
         <v>134</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>161</v>
@@ -11162,7 +11166,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11186,7 +11190,7 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11197,11 +11201,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11223,10 +11227,10 @@
         <v>134</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>161</v>
@@ -11281,7 +11285,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11316,7 +11320,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11339,13 +11343,13 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11396,7 +11400,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11405,7 +11409,7 @@
         <v>89</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>101</v>
@@ -11417,10 +11421,10 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11431,7 +11435,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11454,13 +11458,13 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11511,7 +11515,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11520,7 +11524,7 @@
         <v>89</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>101</v>
@@ -11532,10 +11536,10 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11546,7 +11550,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11572,16 +11576,16 @@
         <v>204</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11609,10 +11613,10 @@
         <v>113</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11630,7 +11634,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11648,13 +11652,13 @@
         <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11665,7 +11669,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11691,16 +11695,16 @@
         <v>204</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11725,13 +11729,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11749,7 +11753,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11767,13 +11771,13 @@
         <v>79</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11784,7 +11788,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11807,17 +11811,17 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11866,7 +11870,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11890,7 +11894,7 @@
         <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11901,7 +11905,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11924,13 +11928,13 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11981,7 +11985,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -12002,10 +12006,10 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -12016,7 +12020,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12039,16 +12043,16 @@
         <v>90</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -12098,7 +12102,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12119,10 +12123,10 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -12133,7 +12137,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12156,16 +12160,16 @@
         <v>90</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -12215,7 +12219,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12236,10 +12240,10 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12250,7 +12254,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12273,19 +12277,19 @@
         <v>90</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12334,7 +12338,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12346,7 +12350,7 @@
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>79</v>
@@ -12355,10 +12359,10 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12369,7 +12373,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12392,13 +12396,13 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12449,7 +12453,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12473,7 +12477,7 @@
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12484,7 +12488,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12510,10 +12514,10 @@
         <v>134</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>161</v>
@@ -12566,7 +12570,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12590,7 +12594,7 @@
         <v>79</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12601,11 +12605,11 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12627,10 +12631,10 @@
         <v>134</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>161</v>
@@ -12685,7 +12689,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12720,7 +12724,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12746,16 +12750,16 @@
         <v>204</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12780,13 +12784,13 @@
         <v>79</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>79</v>
@@ -12804,7 +12808,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>89</v>
@@ -12822,16 +12826,16 @@
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>79</v>
@@ -12839,7 +12843,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12862,19 +12866,19 @@
         <v>90</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12902,10 +12906,10 @@
         <v>196</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>79</v>
@@ -12923,7 +12927,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12932,7 +12936,7 @@
         <v>89</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>101</v>
@@ -12941,24 +12945,24 @@
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12984,16 +12988,16 @@
         <v>204</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -13018,13 +13022,13 @@
         <v>79</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>79</v>
@@ -13042,7 +13046,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -13051,7 +13055,7 @@
         <v>89</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>101</v>
@@ -13066,7 +13070,7 @@
         <v>132</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -13077,11 +13081,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -13103,16 +13107,16 @@
         <v>204</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -13137,13 +13141,13 @@
         <v>79</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>79</v>
@@ -13161,7 +13165,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13179,24 +13183,24 @@
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13222,16 +13226,16 @@
         <v>79</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13280,7 +13284,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13301,10 +13305,10 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="601">
   <si>
     <t>Property</t>
   </si>
@@ -458,7 +458,7 @@
     <t>heartRythm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {NoDomainVitalSignsObservationHeartRhythm}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationHeartRhythm}
 </t>
   </si>
   <si>
@@ -492,7 +492,7 @@
     <t>BodyPosition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {NoDomainVitalSignsObservationHeartRateBodyPosition}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationHeartRateBodyPosition}
 </t>
   </si>
   <si>
@@ -502,7 +502,7 @@
     <t>heartRythmIrregularity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {NoDomainVitalSignsObservationHeartRhythmIrregularity}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationHeartRhythmIrregularity}
 </t>
   </si>
   <si>
@@ -1199,43 +1199,44 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+  </si>
+  <si>
+    <t>Vital Signs value are recorded using the Quantity data type. For supporting observations such as Cuff size could use other datatypes such as CodeableConcept.</t>
+  </si>
+  <si>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>9. SHALL contain exactly one [1..1] value with @xsi:type="PQ" (CONF:7305).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>obs-7
+vs-2</t>
+  </si>
+  <si>
+    <t>&lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>OBX.2, OBX.5, OBX.6</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quantity
 </t>
-  </si>
-  <si>
-    <t>Vital Signs value are recorded using the Quantity data type. For supporting observations such as Cuff size could use other datatypes such as CodeableConcept.</t>
-  </si>
-  <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>9. SHALL contain exactly one [1..1] value with @xsi:type="PQ" (CONF:7305).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>obs-7
-vs-2</t>
-  </si>
-  <si>
-    <t>&lt; 441742003 |Evaluation finding|</t>
-  </si>
-  <si>
-    <t>OBX.2, OBX.5, OBX.6</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>363714003 |Interprets|</t>
-  </si>
-  <si>
-    <t>valueQuantity</t>
   </si>
   <si>
     <t>Observation.value[x].id</t>
@@ -1847,10 +1848,6 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Vital Sign Value recorded with UCUM</t>
@@ -8575,7 +8572,7 @@
         <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>383</v>
+        <v>138</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>377</v>
@@ -8587,7 +8584,7 @@
         <v>89</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>101</v>
@@ -8596,19 +8593,19 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO54" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>388</v>
       </c>
     </row>
     <row r="55">
@@ -8616,7 +8613,7 @@
         <v>377</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>79</v>
@@ -8638,7 +8635,7 @@
         <v>90</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>379</v>
@@ -8708,7 +8705,7 @@
         <v>89</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>101</v>
@@ -8717,19 +8714,19 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO55" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>388</v>
       </c>
     </row>
     <row r="56" hidden="true">
@@ -12866,16 +12863,16 @@
         <v>90</v>
       </c>
       <c r="J91" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="K91" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="K91" t="s" s="2">
+      <c r="L91" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>381</v>
@@ -12906,10 +12903,10 @@
         <v>196</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>79</v>
@@ -12936,7 +12933,7 @@
         <v>89</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>101</v>
@@ -12945,24 +12942,24 @@
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AL91" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AM91" t="s" s="2">
+      <c r="AN91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO91" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>388</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12988,13 +12985,13 @@
         <v>204</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="N92" t="s" s="2">
         <v>436</v>
@@ -13046,7 +13043,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -13055,7 +13052,7 @@
         <v>89</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>101</v>
@@ -13081,7 +13078,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13165,7 +13162,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13200,7 +13197,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13226,10 +13223,10 @@
         <v>79</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>506</v>
@@ -13284,7 +13281,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1-alpha</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="600">
   <si>
     <t>Property</t>
   </si>
@@ -268,10 +268,6 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -1185,14 +1181,14 @@
     <t>Author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|CareTeam|Patient|RelatedPerson|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-PractitionerRole)
 </t>
   </si>
   <si>
-    <t>Organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|http://hl7.no/fhir/StructureDefinition/no-basis-Organization|CareTeam|Patient|RelatedPerson)
+    <t>organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|http://hl7.no/fhir/StructureDefinition/no-basis-Organization)
 </t>
   </si>
   <si>
@@ -2483,19 +2479,19 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>79</v>
@@ -2506,7 +2502,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2517,28 +2513,28 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2588,13 +2584,13 @@
         <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>79</v>
@@ -2623,7 +2619,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2634,25 +2630,25 @@
         <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2703,19 +2699,19 @@
         <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>79</v>
@@ -2738,7 +2734,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2749,28 +2745,28 @@
         <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2820,19 +2816,19 @@
         <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>79</v>
@@ -2855,7 +2851,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2866,7 +2862,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>79</v>
@@ -2878,16 +2874,16 @@
         <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2913,43 +2909,43 @@
         <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>79</v>
@@ -2972,18 +2968,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>79</v>
@@ -2995,16 +2991,16 @@
         <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3054,31 +3050,31 @@
         <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>79</v>
@@ -3089,11 +3085,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3112,16 +3108,16 @@
         <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3171,7 +3167,7 @@
         <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
@@ -3195,7 +3191,7 @@
         <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>79</v>
@@ -3206,7 +3202,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3229,13 +3225,13 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3274,17 +3270,17 @@
         <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -3296,7 +3292,7 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>79</v>
@@ -3319,10 +3315,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>79</v>
@@ -3332,7 +3328,7 @@
         <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>79</v>
@@ -3344,13 +3340,13 @@
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>143</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3401,7 +3397,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -3410,10 +3406,10 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>79</v>
@@ -3425,7 +3421,7 @@
         <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>79</v>
@@ -3436,10 +3432,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>79</v>
@@ -3449,7 +3445,7 @@
         <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>79</v>
@@ -3461,13 +3457,13 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>147</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3518,7 +3514,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3527,10 +3523,10 @@
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>79</v>
@@ -3542,7 +3538,7 @@
         <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>79</v>
@@ -3553,10 +3549,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>79</v>
@@ -3566,7 +3562,7 @@
         <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>79</v>
@@ -3578,13 +3574,13 @@
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3635,7 +3631,7 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3644,10 +3640,10 @@
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>79</v>
@@ -3659,7 +3655,7 @@
         <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>79</v>
@@ -3670,10 +3666,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>79</v>
@@ -3683,7 +3679,7 @@
         <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>79</v>
@@ -3695,13 +3691,13 @@
         <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>153</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3752,7 +3748,7 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -3761,10 +3757,10 @@
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>79</v>
@@ -3776,7 +3772,7 @@
         <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
@@ -3787,10 +3783,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>79</v>
@@ -3800,7 +3796,7 @@
         <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>79</v>
@@ -3812,13 +3808,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>156</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3869,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3878,10 +3874,10 @@
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>79</v>
@@ -3893,7 +3889,7 @@
         <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>79</v>
@@ -3904,11 +3900,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3921,25 +3917,25 @@
         <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>79</v>
@@ -3988,7 +3984,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -4000,7 +3996,7 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>79</v>
@@ -4012,7 +4008,7 @@
         <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -4023,7 +4019,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4043,20 +4039,20 @@
         <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>79</v>
@@ -4105,7 +4101,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -4117,22 +4113,22 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AK16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>79</v>
@@ -4140,11 +4136,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4160,20 +4156,20 @@
         <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>79</v>
@@ -4222,7 +4218,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4234,19 +4230,19 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AK17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -4257,11 +4253,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4277,19 +4273,19 @@
         <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4339,7 +4335,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4351,19 +4347,19 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AK18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4374,7 +4370,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4382,34 +4378,34 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="H19" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I19" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -4434,56 +4430,56 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AK19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>79</v>
@@ -4491,7 +4487,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4499,13 +4495,13 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4514,19 +4510,19 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4551,29 +4547,29 @@
         <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4585,7 +4581,7 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>79</v>
@@ -4597,10 +4593,10 @@
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>79</v>
@@ -4608,24 +4604,24 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G21" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F21" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4633,19 +4629,19 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4670,14 +4666,14 @@
         <v>79</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Y21" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="Z21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4694,7 +4690,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4706,7 +4702,7 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>79</v>
@@ -4718,10 +4714,10 @@
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
@@ -4729,7 +4725,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4740,7 +4736,7 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -4752,13 +4748,13 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4809,31 +4805,31 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4844,11 +4840,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4867,16 +4863,16 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="M23" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4914,19 +4910,19 @@
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD23" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB23" t="s" s="2">
+      <c r="AE23" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4938,7 +4934,7 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>79</v>
@@ -4950,7 +4946,7 @@
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4961,7 +4957,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4969,34 +4965,34 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -5045,7 +5041,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5057,7 +5053,7 @@
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>79</v>
@@ -5066,10 +5062,10 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -5080,7 +5076,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5091,7 +5087,7 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
@@ -5103,13 +5099,13 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5160,31 +5156,31 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5195,11 +5191,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5218,16 +5214,16 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="M26" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5265,19 +5261,19 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD26" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB26" t="s" s="2">
+      <c r="AE26" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5289,7 +5285,7 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>79</v>
@@ -5301,7 +5297,7 @@
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -5312,7 +5308,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5320,107 +5316,107 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G27" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="H27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="R27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE27" t="s" s="2">
+      <c r="AF27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5431,7 +5427,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5442,28 +5438,28 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5513,31 +5509,31 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5548,7 +5544,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5556,105 +5552,105 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="H29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="R29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE29" t="s" s="2">
+      <c r="AF29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5665,7 +5661,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5676,29 +5672,29 @@
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5747,31 +5743,31 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AF30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5782,7 +5778,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5793,31 +5789,31 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J31" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5866,31 +5862,31 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5901,7 +5897,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5912,31 +5908,31 @@
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5985,31 +5981,31 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6020,42 +6016,42 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="H33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6080,66 +6076,66 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="X33" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
+      <c r="AK33" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>299</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6150,7 +6146,7 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -6162,13 +6158,13 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6219,31 +6215,31 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6254,11 +6250,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6277,16 +6273,16 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="M35" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6324,19 +6320,19 @@
         <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD35" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB35" t="s" s="2">
+      <c r="AE35" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6348,7 +6344,7 @@
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>79</v>
@@ -6360,7 +6356,7 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6371,7 +6367,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6379,7 +6375,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>78</v>
@@ -6391,22 +6387,22 @@
         <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6443,17 +6439,17 @@
         <v>79</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6465,7 +6461,7 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>79</v>
@@ -6474,10 +6470,10 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6488,44 +6484,44 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F37" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J37" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6574,7 +6570,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6586,7 +6582,7 @@
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>79</v>
@@ -6595,10 +6591,10 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6609,7 +6605,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6620,7 +6616,7 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>79</v>
@@ -6632,13 +6628,13 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6689,31 +6685,31 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6724,11 +6720,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6747,16 +6743,16 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="M39" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6794,19 +6790,19 @@
         <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD39" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB39" t="s" s="2">
+      <c r="AE39" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6818,7 +6814,7 @@
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>79</v>
@@ -6830,7 +6826,7 @@
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6841,7 +6837,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6849,41 +6845,41 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F40" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>79</v>
@@ -6925,31 +6921,31 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AF40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6960,7 +6956,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6971,28 +6967,28 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7042,31 +7038,31 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AF41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7077,7 +7073,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7085,39 +7081,39 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F42" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>79</v>
@@ -7159,31 +7155,31 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AF42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7194,7 +7190,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7205,29 +7201,29 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -7276,31 +7272,31 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AF43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7311,7 +7307,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7322,31 +7318,31 @@
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J44" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7395,31 +7391,31 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AF44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7430,7 +7426,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7441,31 +7437,31 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7514,31 +7510,31 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AF45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7549,7 +7545,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7557,34 +7553,34 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G46" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="H46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J46" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7633,34 +7629,34 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AK46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7668,7 +7664,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7688,19 +7684,19 @@
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7750,7 +7746,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7762,7 +7758,7 @@
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7771,13 +7767,13 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -7785,42 +7781,42 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J48" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7869,34 +7865,34 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AK48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7904,42 +7900,42 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G49" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="H49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J49" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7988,34 +7984,34 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AI49" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AI49" t="s" s="2">
+      <c r="AJ49" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AJ49" t="s" s="2">
+      <c r="AK49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -8023,7 +8019,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8034,28 +8030,28 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J50" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8105,19 +8101,19 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
@@ -8126,13 +8122,13 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -8140,7 +8136,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8160,20 +8156,20 @@
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8210,17 +8206,17 @@
         <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AB51" s="2"/>
       <c r="AC51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8232,22 +8228,22 @@
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AK51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -8255,10 +8251,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>79</v>
@@ -8277,20 +8273,20 @@
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8339,7 +8335,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8351,22 +8347,22 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AK52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8374,10 +8370,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>79</v>
@@ -8396,20 +8392,20 @@
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8458,7 +8454,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8470,22 +8466,22 @@
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AK53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8493,7 +8489,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8504,31 +8500,31 @@
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G54" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8565,55 +8561,55 @@
         <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AB54" s="2"/>
       <c r="AC54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AI54" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO54" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>387</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>79</v>
@@ -8623,31 +8619,31 @@
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G55" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8696,42 +8692,42 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH55" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AI55" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO55" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>387</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8742,7 +8738,7 @@
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>79</v>
@@ -8754,13 +8750,13 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8811,31 +8807,31 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8846,11 +8842,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8869,16 +8865,16 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="M57" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8916,19 +8912,19 @@
         <v>79</v>
       </c>
       <c r="AA57" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD57" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB57" t="s" s="2">
+      <c r="AE57" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8940,7 +8936,7 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>79</v>
@@ -8952,7 +8948,7 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8963,7 +8959,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8971,34 +8967,34 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F58" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J58" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -9047,31 +9043,31 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AF58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9082,7 +9078,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9093,104 +9089,104 @@
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I59" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P59" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="O59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P59" t="s" s="2">
+      <c r="Q59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X59" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="Q59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="X59" t="s" s="2">
+      <c r="Y59" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="Y59" t="s" s="2">
+      <c r="Z59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE59" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE59" t="s" s="2">
+      <c r="AF59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AF59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9201,7 +9197,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9209,32 +9205,32 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F60" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9283,31 +9279,31 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AF60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9318,7 +9314,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9326,32 +9322,32 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F61" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J61" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9400,31 +9396,31 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH61" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="AF61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH61" t="s" s="2">
+      <c r="AI61" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9435,7 +9431,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9443,34 +9439,34 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F62" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J62" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9519,31 +9515,31 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9554,7 +9550,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9565,11 +9561,11 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G63" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G63" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9577,19 +9573,19 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9614,55 +9610,55 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Y63" t="s" s="2">
+      <c r="Z63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH63" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH63" t="s" s="2">
+      <c r="AI63" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9673,11 +9669,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9696,19 +9692,19 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9733,14 +9729,14 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="Y64" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9757,7 +9753,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9769,30 +9765,30 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>452</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9815,19 +9811,19 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9876,7 +9872,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9888,7 +9884,7 @@
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>79</v>
@@ -9897,10 +9893,10 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9911,7 +9907,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9922,7 +9918,7 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9934,16 +9930,16 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9969,64 +9965,64 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="Z66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK66" t="s" s="2">
+      <c r="AL66" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO66" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>469</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10037,7 +10033,7 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -10049,13 +10045,13 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -10106,31 +10102,31 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -10141,11 +10137,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -10164,16 +10160,16 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="M68" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10211,19 +10207,19 @@
         <v>79</v>
       </c>
       <c r="AA68" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD68" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB68" t="s" s="2">
+      <c r="AE68" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10235,7 +10231,7 @@
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>79</v>
@@ -10247,7 +10243,7 @@
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10258,7 +10254,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10278,22 +10274,22 @@
         <v>79</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10318,11 +10314,11 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10340,7 +10336,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10352,7 +10348,7 @@
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>79</v>
@@ -10361,10 +10357,10 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10375,7 +10371,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10386,31 +10382,31 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J70" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10459,31 +10455,31 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AF70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL70" t="s" s="2">
+      <c r="AM70" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10494,7 +10490,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10505,7 +10501,7 @@
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>79</v>
@@ -10517,19 +10513,19 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10554,55 +10550,55 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="X71" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="X71" t="s" s="2">
+      <c r="Y71" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="Y71" t="s" s="2">
+      <c r="Z71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10613,7 +10609,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10624,7 +10620,7 @@
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>79</v>
@@ -10636,16 +10632,16 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10695,42 +10691,42 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="AL72" t="s" s="2">
+      <c r="AM72" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="AM72" t="s" s="2">
+      <c r="AN72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO72" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>492</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10741,7 +10737,7 @@
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>79</v>
@@ -10753,16 +10749,16 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10812,42 +10808,42 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AM73" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO73" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>501</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10870,19 +10866,19 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10931,7 +10927,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10943,19 +10939,19 @@
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="AJ74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL74" t="s" s="2">
+      <c r="AM74" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10966,7 +10962,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10977,7 +10973,7 @@
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>79</v>
@@ -10989,13 +10985,13 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -11046,31 +11042,31 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -11081,11 +11077,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -11104,16 +11100,16 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="M76" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11163,7 +11159,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11175,7 +11171,7 @@
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>79</v>
@@ -11187,7 +11183,7 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11198,11 +11194,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11215,25 +11211,25 @@
         <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="L77" t="s" s="2">
-        <v>516</v>
-      </c>
       <c r="M77" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N77" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11282,7 +11278,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11294,7 +11290,7 @@
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>79</v>
@@ -11306,7 +11302,7 @@
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11317,7 +11313,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11328,7 +11324,7 @@
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>79</v>
@@ -11340,13 +11336,13 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="L78" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11397,31 +11393,31 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH78" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="AI78" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL78" t="s" s="2">
+      <c r="AM78" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11432,7 +11428,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11443,7 +11439,7 @@
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>79</v>
@@ -11455,13 +11451,13 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11512,31 +11508,31 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH79" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="AI79" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>523</v>
-      </c>
       <c r="AM79" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11547,7 +11543,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11558,7 +11554,7 @@
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>79</v>
@@ -11570,19 +11566,19 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11607,55 +11603,55 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X80" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Y80" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="Y80" t="s" s="2">
+      <c r="Z80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK80" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="Z80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK80" t="s" s="2">
+      <c r="AL80" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="AL80" t="s" s="2">
-        <v>537</v>
-      </c>
       <c r="AM80" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11666,7 +11662,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11689,19 +11685,19 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11726,14 +11722,14 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="X81" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="Y81" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="Y81" t="s" s="2">
-        <v>544</v>
-      </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11750,7 +11746,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11762,19 +11758,19 @@
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AL81" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="AL81" t="s" s="2">
-        <v>537</v>
-      </c>
       <c r="AM81" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11785,7 +11781,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11796,7 +11792,7 @@
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>79</v>
@@ -11808,17 +11804,17 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="K82" t="s" s="2">
+      <c r="L82" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11867,19 +11863,19 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>79</v>
@@ -11891,7 +11887,7 @@
         <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11902,7 +11898,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11913,7 +11909,7 @@
         <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>79</v>
@@ -11925,13 +11921,13 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11982,19 +11978,19 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>79</v>
@@ -12003,10 +11999,10 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -12017,7 +12013,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12037,19 +12033,19 @@
         <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="K84" t="s" s="2">
+      <c r="L84" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -12099,7 +12095,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12111,7 +12107,7 @@
         <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>79</v>
@@ -12120,10 +12116,10 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -12134,7 +12130,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12154,19 +12150,19 @@
         <v>79</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="K85" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="K85" t="s" s="2">
+      <c r="L85" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -12216,7 +12212,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12228,7 +12224,7 @@
         <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>79</v>
@@ -12237,10 +12233,10 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12251,7 +12247,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12265,28 +12261,28 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="L86" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12335,7 +12331,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12347,19 +12343,19 @@
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="AJ86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL86" t="s" s="2">
+      <c r="AM86" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12370,7 +12366,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12381,7 +12377,7 @@
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>79</v>
@@ -12393,13 +12389,13 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K87" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K87" t="s" s="2">
+      <c r="L87" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12450,31 +12446,31 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12485,11 +12481,11 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12508,16 +12504,16 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L88" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="M88" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12567,7 +12563,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12579,7 +12575,7 @@
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>79</v>
@@ -12591,7 +12587,7 @@
         <v>79</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12602,11 +12598,11 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12619,25 +12615,25 @@
         <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="L89" t="s" s="2">
-        <v>516</v>
-      </c>
       <c r="M89" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N89" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12686,7 +12682,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12698,7 +12694,7 @@
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>79</v>
@@ -12710,7 +12706,7 @@
         <v>79</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12721,7 +12717,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12729,34 +12725,34 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G90" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="H90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I90" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G90" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J90" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12781,14 +12777,14 @@
         <v>79</v>
       </c>
       <c r="W90" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="X90" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="X90" t="s" s="2">
+      <c r="Y90" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="Y90" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="Z90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12805,34 +12801,34 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AL90" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AM90" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AM90" t="s" s="2">
+      <c r="AN90" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>79</v>
@@ -12840,7 +12836,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12851,31 +12847,31 @@
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G91" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G91" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="M91" t="s" s="2">
-        <v>587</v>
-      </c>
       <c r="N91" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12900,66 +12896,66 @@
         <v>79</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="Y91" t="s" s="2">
+      <c r="Z91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH91" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="Z91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH91" t="s" s="2">
+      <c r="AI91" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK91" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="AI91" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>591</v>
-      </c>
       <c r="AL91" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AM91" t="s" s="2">
+      <c r="AN91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO91" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>387</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12970,11 +12966,11 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G92" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G92" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H92" t="s" s="2">
         <v>79</v>
       </c>
@@ -12982,19 +12978,19 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="M92" t="s" s="2">
-        <v>595</v>
-      </c>
       <c r="N92" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -13019,14 +13015,14 @@
         <v>79</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="X92" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="Y92" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Y92" t="s" s="2">
-        <v>438</v>
-      </c>
       <c r="Z92" t="s" s="2">
         <v>79</v>
       </c>
@@ -13043,19 +13039,19 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>79</v>
@@ -13064,10 +13060,10 @@
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -13078,11 +13074,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -13101,19 +13097,19 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -13138,14 +13134,14 @@
         <v>79</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="X93" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="Y93" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="Y93" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="Z93" t="s" s="2">
         <v>79</v>
       </c>
@@ -13162,7 +13158,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13174,30 +13170,30 @@
         <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AL93" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AL93" t="s" s="2">
+      <c r="AM93" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AM93" t="s" s="2">
+      <c r="AN93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO93" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>452</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13223,16 +13219,16 @@
         <v>79</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="L94" t="s" s="2">
-        <v>600</v>
-      </c>
       <c r="M94" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="N94" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13281,7 +13277,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13293,7 +13289,7 @@
         <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>79</v>
@@ -13302,10 +13298,10 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.3</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.0</t>
+    <t>0.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.1</t>
+    <t>0.7.3</t>
   </si>
   <si>
     <t>Name</t>
